--- a/temp/pages/StructureDefinition-cbs-race.xlsx
+++ b/temp/pages/StructureDefinition-cbs-race.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="101">
   <si>
     <t>Path</t>
   </si>
@@ -287,7 +287,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t>extensible</t>
+    <t>required</t>
   </si>
   <si>
     <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.7205</t>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>The 900+ CDC race codes that are grouped under one of the 5 OMB race category codes:.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The [900+ CDC Race codes](http://www.cdc.gov/phin/resources/vocabulary/index.html) that are grouped under one of the 5 OMB race category codes.</t>
@@ -2110,13 +2107,13 @@
         <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>37</v>
@@ -2157,7 +2154,7 @@
         <v>51</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>37</v>
@@ -2182,10 +2179,10 @@
         <v>53</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2496,7 +2493,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
@@ -2659,7 +2656,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>37</v>
@@ -2761,7 +2758,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>37</v>
@@ -2786,10 +2783,10 @@
         <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3100,7 +3097,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>37</v>
@@ -3263,7 +3260,7 @@
         <v>76</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>37</v>
@@ -3402,7 +3399,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>37</v>
@@ -3487,7 +3484,7 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>78</v>
